--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -44,8 +44,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0F4FF"/>
-        <bgColor rgb="00E0F4FF"/>
+        <fgColor rgb="00FFE0E0"/>
+        <bgColor rgb="00FFE0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD8A6"/>
+        <bgColor rgb="00FFD8A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,14 +62,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD8A6"/>
-        <bgColor rgb="00FFD8A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE0E0"/>
-        <bgColor rgb="00FFE0E0"/>
+        <fgColor rgb="00E0F4FF"/>
+        <bgColor rgb="00E0F4FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -636,64 +636,64 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="C2" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="G2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="3" t="n"/>
       <c r="J2" s="3" t="n"/>
-      <c r="K2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="K2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="n"/>
       <c r="M2" s="3" t="n"/>
-      <c r="N2" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" s="5" t="n"/>
+      <c r="N2" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6" t="n"/>
       <c r="P2" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="Q2" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="R2" s="3" t="n"/>
-      <c r="S2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U2" s="5" t="n"/>
-      <c r="V2" s="5" t="n"/>
-      <c r="W2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X2" s="3" t="n"/>
-      <c r="Y2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="3" t="n"/>
-      <c r="AB2" s="5" t="n"/>
-      <c r="AC2" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="S2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
       <c r="AD2" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="3" t="n"/>
       <c r="AF2" s="3" t="n"/>
       <c r="AG2" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -704,60 +704,60 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n"/>
-      <c r="C3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="n"/>
+      <c r="C3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
+      <c r="F3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="n"/>
       <c r="I3" s="3" t="n"/>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="7" t="n">
         <v>11</v>
       </c>
       <c r="K3" s="3" t="n"/>
-      <c r="L3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="L3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="6" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
       <c r="R3" s="3" t="n"/>
-      <c r="S3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="W3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Z3" s="3" t="n"/>
-      <c r="AA3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB3" s="5" t="n"/>
-      <c r="AC3" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="4" t="n">
+      <c r="AA3" s="3" t="n"/>
+      <c r="AB3" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="6" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
@@ -772,64 +772,64 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n"/>
-      <c r="C4" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="C4" s="3" t="n"/>
       <c r="D4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="n"/>
+      <c r="E4" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
       <c r="I4" s="3" t="n"/>
-      <c r="J4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="4" t="n">
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="n">
         <v>11</v>
       </c>
       <c r="M4" s="3" t="n"/>
-      <c r="N4" s="5" t="n"/>
-      <c r="O4" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P4" s="3" t="n"/>
+      <c r="N4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" s="6" t="n"/>
+      <c r="P4" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Q4" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="n"/>
-      <c r="T4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V4" s="5" t="n"/>
-      <c r="W4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="3" t="n"/>
       <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="3" t="n"/>
-      <c r="AB4" s="5" t="n"/>
-      <c r="AC4" s="5" t="n"/>
+      <c r="AA4" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="6" t="n"/>
+      <c r="AC4" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="AD4" s="3" t="n"/>
       <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -839,65 +839,65 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="E5" s="3" t="n"/>
-      <c r="F5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5" t="n"/>
-      <c r="O5" s="5" t="n"/>
-      <c r="P5" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="L5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P5" s="3" t="n"/>
       <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="7" t="n">
         <v>11</v>
       </c>
       <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V5" s="5" t="n"/>
-      <c r="W5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="3" t="n"/>
-      <c r="Z5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="5" t="n"/>
-      <c r="AC5" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="T5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" s="6" t="n"/>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="3" t="n"/>
+      <c r="AA5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="6" t="n"/>
+      <c r="AC5" s="6" t="n"/>
       <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="3" t="n"/>
+      <c r="AE5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AG5" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -907,65 +907,65 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
+      <c r="B6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="D6" s="3" t="n"/>
-      <c r="E6" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="5" t="n"/>
-      <c r="O6" s="5" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="n"/>
+      <c r="O6" s="6" t="n"/>
       <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V6" s="5" t="n"/>
+      <c r="Q6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="6" t="n"/>
+      <c r="V6" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="W6" s="3" t="n"/>
       <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
       <c r="AA6" s="3" t="n"/>
-      <c r="AB6" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="5" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="AB6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="6" t="n"/>
+      <c r="AD6" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
       <c r="AG6" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -976,64 +976,64 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n"/>
-      <c r="C7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="8" t="n">
-        <v>12</v>
-      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="n"/>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L7" s="3" t="n"/>
-      <c r="M7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" s="5" t="n"/>
-      <c r="P7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="6" t="n"/>
+      <c r="O7" s="6" t="n"/>
+      <c r="P7" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="S7" s="3" t="n"/>
-      <c r="T7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="5" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="3" t="n"/>
-      <c r="Z7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" s="3" t="n"/>
-      <c r="AB7" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="5" t="n"/>
-      <c r="AD7" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" s="4" t="n">
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="3" t="n"/>
+      <c r="AA7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" s="6" t="n"/>
+      <c r="AC7" s="6" t="n"/>
+      <c r="AD7" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
@@ -1045,59 +1045,59 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="D8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
-      <c r="G8" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="n"/>
+      <c r="G8" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" s="3" t="n"/>
-      <c r="J8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="n"/>
+      <c r="J8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R8" s="4" t="n">
+      <c r="M8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="n"/>
+      <c r="O8" s="6" t="n"/>
+      <c r="P8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="7" t="n">
         <v>11</v>
       </c>
       <c r="S8" s="3" t="n"/>
       <c r="T8" s="3" t="n"/>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="5" t="n"/>
-      <c r="W8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" s="4" t="n">
+      <c r="U8" s="6" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Y8" s="3" t="n"/>
-      <c r="Z8" s="3" t="n"/>
-      <c r="AA8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" s="5" t="n"/>
-      <c r="AD8" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Z8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="3" t="n"/>
       <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
@@ -1111,65 +1111,65 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="B9" s="3" t="n"/>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="D9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="3" t="n"/>
       <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="K9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" s="3" t="n"/>
       <c r="M9" s="3" t="n"/>
-      <c r="N9" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="N9" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" s="6" t="n"/>
       <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="3" t="n"/>
-      <c r="S9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="5" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Q9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="3" t="n"/>
       <c r="Z9" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="3" t="n"/>
-      <c r="AB9" s="5" t="n"/>
-      <c r="AC9" s="5" t="n"/>
-      <c r="AD9" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="3" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="AA9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="6" t="n"/>
+      <c r="AC9" s="6" t="n"/>
+      <c r="AD9" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
@@ -1179,65 +1179,65 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n"/>
+      <c r="B10" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
-      <c r="F10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N10" s="5" t="n"/>
-      <c r="O10" s="5" t="n"/>
-      <c r="P10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="F10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" s="6" t="n"/>
+      <c r="P10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" s="3" t="n"/>
       <c r="T10" s="3" t="n"/>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="U10" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="3" t="n"/>
       <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="4" t="n">
+      <c r="Y10" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Z10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AA10" s="3" t="n"/>
-      <c r="AB10" s="5" t="n"/>
-      <c r="AC10" s="8" t="n">
-        <v>12</v>
-      </c>
+      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
       <c r="AD10" s="3" t="n"/>
       <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="4" t="n">
+      <c r="AF10" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -1248,62 +1248,62 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="n"/>
-      <c r="C11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N11" s="5" t="n"/>
-      <c r="O11" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="6" t="n"/>
+      <c r="O11" s="6" t="n"/>
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="3" t="n"/>
       <c r="R11" s="3" t="n"/>
-      <c r="S11" s="3" t="n"/>
-      <c r="T11" s="3" t="n"/>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="5" t="n"/>
+      <c r="S11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U11" s="6" t="n"/>
+      <c r="V11" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="W11" s="3" t="n"/>
-      <c r="X11" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="X11" s="3" t="n"/>
       <c r="Y11" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Z11" s="3" t="n"/>
-      <c r="AA11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" s="5" t="n"/>
-      <c r="AC11" s="5" t="n"/>
-      <c r="AD11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF11" s="3" t="n"/>
+      <c r="AA11" s="3" t="n"/>
+      <c r="AB11" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" s="6" t="n"/>
+      <c r="AD11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AG11" t="n">
         <v>143</v>
       </c>
@@ -1315,65 +1315,65 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="B12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
       <c r="K12" s="3" t="n"/>
-      <c r="L12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" s="5" t="n"/>
-      <c r="O12" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" s="6" t="n"/>
+      <c r="O12" s="6" t="n"/>
       <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="3" t="n"/>
+      <c r="Q12" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="R12" s="3" t="n"/>
-      <c r="S12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" s="3" t="n"/>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="5" t="n"/>
+      <c r="S12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U12" s="6" t="n"/>
+      <c r="V12" s="6" t="n"/>
       <c r="W12" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X12" s="3" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="X12" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Y12" s="3" t="n"/>
-      <c r="Z12" s="3" t="n"/>
+      <c r="Z12" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AA12" s="3" t="n"/>
-      <c r="AB12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" s="5" t="n"/>
-      <c r="AD12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AB12" s="6" t="n"/>
+      <c r="AC12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AF12" s="3" t="n"/>
       <c r="AG12" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
@@ -1383,65 +1383,65 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="4" t="n">
+      <c r="E13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
+      <c r="I13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" s="5" t="n"/>
+      <c r="L13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" s="6" t="n"/>
+      <c r="O13" s="6" t="n"/>
       <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="3" t="n"/>
+      <c r="Q13" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="R13" s="3" t="n"/>
-      <c r="S13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="U13" s="5" t="n"/>
-      <c r="V13" s="5" t="n"/>
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" s="6" t="n"/>
       <c r="W13" s="3" t="n"/>
       <c r="X13" s="3" t="n"/>
       <c r="Y13" s="3" t="n"/>
-      <c r="Z13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" s="5" t="n"/>
-      <c r="AC13" s="5" t="n"/>
-      <c r="AD13" s="3" t="n"/>
-      <c r="AE13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF13" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="Z13" s="3" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+      <c r="AB13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
       <c r="AG13" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH13" t="n">
         <v>13</v>
@@ -1451,65 +1451,65 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n"/>
+      <c r="B14" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="C14" s="3" t="n"/>
-      <c r="D14" s="7" t="n">
-        <v>12</v>
-      </c>
+      <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="n"/>
       <c r="F14" s="3" t="n"/>
-      <c r="G14" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="6" t="n"/>
+      <c r="I14" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J14" s="3" t="n"/>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="7" t="n">
         <v>11</v>
       </c>
       <c r="L14" s="3" t="n"/>
-      <c r="M14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N14" s="5" t="n"/>
-      <c r="O14" s="5" t="n"/>
-      <c r="P14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R14" s="3" t="n"/>
-      <c r="S14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U14" s="5" t="n"/>
-      <c r="V14" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="W14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="3" t="n"/>
-      <c r="Z14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6" t="n"/>
+      <c r="P14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="6" t="n"/>
+      <c r="V14" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AA14" s="3" t="n"/>
-      <c r="AB14" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" s="5" t="n"/>
-      <c r="AD14" s="3" t="n"/>
+      <c r="AB14" s="6" t="n"/>
+      <c r="AC14" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AE14" s="3" t="n"/>
       <c r="AF14" s="3" t="n"/>
       <c r="AG14" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH14" t="n">
         <v>13</v>
@@ -1519,65 +1519,65 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="B15" s="3" t="n"/>
       <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
+      <c r="D15" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="E15" s="3" t="n"/>
-      <c r="F15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="n"/>
-      <c r="I15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" s="3" t="n"/>
+      <c r="F15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="6" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L15" s="3" t="n"/>
-      <c r="M15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" s="5" t="n"/>
-      <c r="P15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3" t="n"/>
-      <c r="S15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" s="5" t="n"/>
-      <c r="V15" s="5" t="n"/>
-      <c r="W15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="6" t="n"/>
+      <c r="O15" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="X15" s="3" t="n"/>
       <c r="Y15" s="3" t="n"/>
-      <c r="Z15" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="3" t="n"/>
-      <c r="AB15" s="5" t="n"/>
-      <c r="AC15" s="5" t="n"/>
-      <c r="AD15" s="3" t="n"/>
-      <c r="AE15" s="7" t="n">
-        <v>12</v>
+      <c r="Z15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>11</v>
       </c>
       <c r="AF15" s="3" t="n"/>
       <c r="AG15" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH15" t="n">
         <v>13</v>
@@ -1587,65 +1587,65 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="n"/>
+      <c r="B16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="I16" s="3" t="n"/>
-      <c r="J16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="J16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
-      <c r="M16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N16" s="5" t="n"/>
-      <c r="O16" s="5" t="n"/>
-      <c r="P16" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="M16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N16" s="6" t="n"/>
+      <c r="O16" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
       <c r="R16" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="S16" s="3" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="T16" s="3" t="n"/>
-      <c r="U16" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="U16" s="6" t="n"/>
+      <c r="V16" s="6" t="n"/>
       <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
+      <c r="X16" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Y16" s="3" t="n"/>
-      <c r="Z16" s="3" t="n"/>
-      <c r="AA16" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="5" t="n"/>
-      <c r="AC16" s="5" t="n"/>
+      <c r="Z16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="6" t="n"/>
+      <c r="AC16" s="6" t="n"/>
       <c r="AD16" s="3" t="n"/>
-      <c r="AE16" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="AE16" s="3" t="n"/>
       <c r="AF16" s="3" t="n"/>
       <c r="AG16" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -1655,65 +1655,65 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="B17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="E17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="6" t="n"/>
+      <c r="I17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3" t="n"/>
       <c r="L17" s="4" t="n">
         <v>11</v>
       </c>
       <c r="M17" s="3" t="n"/>
-      <c r="N17" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O17" s="8" t="n">
-        <v>12</v>
+      <c r="N17" s="6" t="n"/>
+      <c r="O17" s="5" t="n">
+        <v>11</v>
       </c>
       <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Q17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R17" s="3" t="n"/>
       <c r="S17" s="3" t="n"/>
       <c r="T17" s="3" t="n"/>
-      <c r="U17" s="5" t="n"/>
-      <c r="V17" s="5" t="n"/>
-      <c r="W17" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="U17" s="6" t="n"/>
+      <c r="V17" s="6" t="n"/>
+      <c r="W17" s="3" t="n"/>
       <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="3" t="n"/>
+      <c r="Y17" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Z17" s="3" t="n"/>
-      <c r="AA17" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="5" t="n"/>
-      <c r="AC17" s="5" t="n"/>
+      <c r="AA17" s="3" t="n"/>
+      <c r="AB17" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="AD17" s="3" t="n"/>
       <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="4" t="n">
+      <c r="AF17" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -1723,65 +1723,65 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="n">
+      <c r="B18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
+      <c r="E18" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="F18" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N18" s="5" t="n"/>
-      <c r="O18" s="5" t="n"/>
+      <c r="J18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" s="6" t="n"/>
+      <c r="O18" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R18" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
       <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="V18" s="5" t="n"/>
+      <c r="T18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U18" s="6" t="n"/>
+      <c r="V18" s="6" t="n"/>
       <c r="W18" s="3" t="n"/>
       <c r="X18" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Y18" s="3" t="n"/>
       <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" s="5" t="n"/>
-      <c r="AC18" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" s="3" t="n"/>
-      <c r="AF18" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="AA18" s="3" t="n"/>
+      <c r="AB18" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC18" s="6" t="n"/>
+      <c r="AD18" s="3" t="n"/>
+      <c r="AE18" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" s="3" t="n"/>
       <c r="AG18" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -1791,65 +1791,65 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="n">
+      <c r="B19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="E19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="5" t="n">
+        <v>11</v>
+      </c>
       <c r="I19" s="3" t="n"/>
       <c r="J19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="K19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="5" t="n"/>
-      <c r="O19" s="5" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N19" s="6" t="n"/>
+      <c r="O19" s="6" t="n"/>
       <c r="P19" s="3" t="n"/>
-      <c r="Q19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="R19" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="n"/>
       <c r="S19" s="3" t="n"/>
-      <c r="T19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U19" s="5" t="n"/>
-      <c r="V19" s="8" t="n">
-        <v>12</v>
-      </c>
+      <c r="T19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V19" s="6" t="n"/>
       <c r="W19" s="3" t="n"/>
       <c r="X19" s="3" t="n"/>
-      <c r="Y19" s="3" t="n"/>
+      <c r="Y19" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Z19" s="3" t="n"/>
       <c r="AA19" s="3" t="n"/>
-      <c r="AB19" s="5" t="n"/>
-      <c r="AC19" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="AB19" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" s="6" t="n"/>
       <c r="AD19" s="3" t="n"/>
-      <c r="AE19" s="3" t="n"/>
-      <c r="AF19" s="4" t="n">
+      <c r="AE19" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -1859,65 +1859,65 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="n">
+      <c r="B20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="5" t="n"/>
-      <c r="O20" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P20" s="4" t="n">
+      <c r="E20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N20" s="6" t="n"/>
+      <c r="O20" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Q20" s="3" t="n"/>
       <c r="R20" s="3" t="n"/>
-      <c r="S20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T20" s="3" t="n"/>
-      <c r="U20" s="5" t="n"/>
-      <c r="V20" s="6" t="n">
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U20" s="6" t="n"/>
+      <c r="V20" s="8" t="n">
         <v>11</v>
       </c>
       <c r="W20" s="3" t="n"/>
-      <c r="X20" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y20" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="X20" s="3" t="n"/>
+      <c r="Y20" s="3" t="n"/>
       <c r="Z20" s="3" t="n"/>
       <c r="AA20" s="3" t="n"/>
-      <c r="AB20" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" s="5" t="n"/>
+      <c r="AB20" s="6" t="n"/>
+      <c r="AC20" s="6" t="n"/>
       <c r="AD20" s="3" t="n"/>
       <c r="AE20" s="3" t="n"/>
-      <c r="AF20" s="3" t="n"/>
+      <c r="AF20" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AG20" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
@@ -1939,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3" t="n">
         <v>9</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>5</v>
@@ -1954,22 +1954,22 @@
         <v>7</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K22" s="3" t="n">
         <v>8</v>
       </c>
       <c r="L22" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" s="3" t="n">
         <v>7</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>9</v>
       </c>
       <c r="N22" s="3" t="n">
         <v>5</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>7</v>
@@ -1981,13 +1981,13 @@
         <v>7</v>
       </c>
       <c r="S22" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U22" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V22" s="3" t="n">
         <v>5</v>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="AB22" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" s="3" t="n">
         <v>5</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -44,8 +44,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE0E0"/>
-        <bgColor rgb="00FFE0E0"/>
+        <fgColor rgb="00E0F4FF"/>
+        <bgColor rgb="00E0F4FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE9CC"/>
+        <bgColor rgb="00FFE9CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,14 +62,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE9CC"/>
-        <bgColor rgb="00FFE9CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0F4FF"/>
-        <bgColor rgb="00E0F4FF"/>
+        <fgColor rgb="00FFE0E0"/>
+        <bgColor rgb="00FFE0E0"/>
       </patternFill>
     </fill>
     <fill>
@@ -186,6 +186,21 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>System</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Nurse 1: Mon-Thu day shifts are 10h; Fri/weekend day shifts 11h; nights unchanged</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,67 +651,69 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="n"/>
+      <c r="E2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
       <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="7" t="n">
-        <v>11</v>
+      <c r="J2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="L2" s="3" t="n"/>
       <c r="M2" s="3" t="n"/>
-      <c r="N2" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="n"/>
       <c r="T2" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="U2" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="3" t="n"/>
-      <c r="X2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="3" t="n"/>
-      <c r="Z2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" s="3" t="n"/>
+      <c r="U2" s="5" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="3" t="n"/>
+      <c r="AA2" s="3" t="n"/>
+      <c r="AB2" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="5" t="n"/>
+      <c r="AD2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>10</v>
+      </c>
       <c r="AF2" s="3" t="n"/>
       <c r="AG2" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -704,62 +721,62 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n"/>
-      <c r="C3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="n"/>
-      <c r="F3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" s="6" t="n"/>
+      <c r="F3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="n"/>
       <c r="I3" s="3" t="n"/>
-      <c r="J3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="7" t="n">
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>11</v>
       </c>
       <c r="M3" s="3" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
       <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
+      <c r="Q3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="S3" s="3" t="n"/>
-      <c r="T3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U3" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="7" t="n">
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V3" s="5" t="n"/>
+      <c r="W3" s="4" t="n">
         <v>11</v>
       </c>
       <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="3" t="n"/>
-      <c r="AA3" s="3" t="n"/>
-      <c r="AB3" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="3" t="n"/>
-      <c r="AE3" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y3" s="3" t="n"/>
+      <c r="Z3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="5" t="n"/>
+      <c r="AC3" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
       <c r="AG3" t="n">
         <v>143</v>
       </c>
@@ -772,60 +789,60 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="D4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
-      <c r="K4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
       <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V4" s="6" t="n"/>
-      <c r="W4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" s="7" t="n">
+      <c r="S4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U4" s="5" t="n"/>
+      <c r="V4" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" s="3" t="n"/>
-      <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="6" t="n"/>
-      <c r="AC4" s="5" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="3" t="n"/>
+      <c r="AB4" s="5" t="n"/>
+      <c r="AC4" s="8" t="n">
         <v>11</v>
       </c>
       <c r="AD4" s="3" t="n"/>
       <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="7" t="n">
+      <c r="AF4" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AG4" t="n">
@@ -839,61 +856,61 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="B5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="8" t="n">
-        <v>11</v>
-      </c>
+      <c r="F5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="n"/>
       <c r="I5" s="4" t="n">
         <v>11</v>
       </c>
       <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="n"/>
-      <c r="L5" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="L5" s="3" t="n"/>
       <c r="M5" s="3" t="n"/>
-      <c r="N5" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="N5" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R5" s="3" t="n"/>
       <c r="S5" s="3" t="n"/>
-      <c r="T5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U5" s="6" t="n"/>
-      <c r="V5" s="6" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" s="7" t="n">
+      <c r="T5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" s="5" t="n"/>
+      <c r="V5" s="5" t="n"/>
+      <c r="W5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Z5" s="3" t="n"/>
-      <c r="AA5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="6" t="n"/>
-      <c r="AC5" s="6" t="n"/>
+      <c r="AA5" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="5" t="n"/>
+      <c r="AC5" s="5" t="n"/>
       <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="7" t="n">
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AG5" t="n">
@@ -907,61 +924,61 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="n">
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="4" t="n">
         <v>11</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="N6" s="6" t="n"/>
-      <c r="O6" s="6" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="6" t="n"/>
-      <c r="V6" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
+      <c r="N6" s="5" t="n"/>
+      <c r="O6" s="5" t="n"/>
+      <c r="P6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" s="5" t="n"/>
+      <c r="W6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="Y6" s="3" t="n"/>
       <c r="Z6" s="3" t="n"/>
       <c r="AA6" s="3" t="n"/>
-      <c r="AB6" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="6" t="n"/>
-      <c r="AD6" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="AB6" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="5" t="n"/>
+      <c r="AD6" s="3" t="n"/>
       <c r="AE6" s="3" t="n"/>
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" t="n">
@@ -976,62 +993,62 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="C7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
-      <c r="F7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" s="6" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="n"/>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
-      <c r="K7" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="6" t="n"/>
-      <c r="O7" s="6" t="n"/>
+      <c r="M7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" s="5" t="n"/>
       <c r="P7" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="Q7" s="3" t="n"/>
+      <c r="Q7" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="R7" s="3" t="n"/>
-      <c r="S7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U7" s="6" t="n"/>
-      <c r="V7" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="W7" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="S7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" s="5" t="n"/>
+      <c r="V7" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" s="3" t="n"/>
       <c r="X7" s="3" t="n"/>
-      <c r="Y7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="3" t="n"/>
-      <c r="AA7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" s="6" t="n"/>
-      <c r="AC7" s="6" t="n"/>
-      <c r="AD7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" s="3" t="n"/>
+      <c r="Y7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="3" t="n"/>
+      <c r="AB7" s="5" t="n"/>
+      <c r="AC7" s="5" t="n"/>
+      <c r="AD7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="AG7" t="n">
         <v>143</v>
       </c>
@@ -1045,59 +1062,59 @@
       </c>
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="3" t="n"/>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="4" t="n">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
-      <c r="G8" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="n"/>
+      <c r="G8" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="n"/>
       <c r="I8" s="3" t="n"/>
-      <c r="J8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="n">
+      <c r="J8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>11</v>
       </c>
       <c r="L8" s="3" t="n"/>
-      <c r="M8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N8" s="6" t="n"/>
-      <c r="O8" s="6" t="n"/>
+      <c r="M8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" s="5" t="n"/>
       <c r="P8" s="7" t="n">
         <v>11</v>
       </c>
       <c r="Q8" s="3" t="n"/>
-      <c r="R8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S8" s="3" t="n"/>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="6" t="n"/>
-      <c r="V8" s="6" t="n"/>
-      <c r="W8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="3" t="n"/>
-      <c r="Z8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="6" t="n"/>
-      <c r="AC8" s="8" t="n">
-        <v>11</v>
-      </c>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U8" s="5" t="n"/>
+      <c r="V8" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+      <c r="AB8" s="5" t="n"/>
+      <c r="AC8" s="5" t="n"/>
       <c r="AD8" s="3" t="n"/>
       <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="7" t="n">
+      <c r="AF8" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AG8" t="n">
@@ -1111,62 +1128,62 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n"/>
+      <c r="B9" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="C9" s="3" t="n"/>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="4" t="n">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="3" t="n"/>
+      <c r="F9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="J9" s="3" t="n"/>
       <c r="K9" s="4" t="n">
         <v>11</v>
       </c>
       <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" s="6" t="n"/>
+      <c r="M9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5" t="n"/>
       <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R9" s="4" t="n">
         <v>11</v>
       </c>
       <c r="S9" s="3" t="n"/>
-      <c r="T9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V9" s="6" t="n"/>
-      <c r="W9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" s="3" t="n"/>
-      <c r="Z9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" s="6" t="n"/>
-      <c r="AC9" s="6" t="n"/>
-      <c r="AD9" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" s="5" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="3" t="n"/>
+      <c r="AB9" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="5" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" t="n">
         <v>143</v>
@@ -1179,63 +1196,63 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
-      <c r="F10" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" s="7" t="n">
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="K10" s="3" t="n"/>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="4" t="n">
         <v>11</v>
       </c>
       <c r="M10" s="3" t="n"/>
-      <c r="N10" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" s="6" t="n"/>
-      <c r="P10" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="N10" s="5" t="n"/>
+      <c r="O10" s="5" t="n"/>
+      <c r="P10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" s="3" t="n"/>
       <c r="S10" s="3" t="n"/>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V10" s="6" t="n"/>
-      <c r="W10" s="3" t="n"/>
+      <c r="T10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" s="5" t="n"/>
+      <c r="V10" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W10" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y10" s="3" t="n"/>
       <c r="Z10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="AA10" s="3" t="n"/>
-      <c r="AB10" s="6" t="n"/>
-      <c r="AC10" s="6" t="n"/>
-      <c r="AD10" s="3" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="AA10" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="5" t="n"/>
+      <c r="AC10" s="5" t="n"/>
+      <c r="AD10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="3" t="n"/>
       <c r="AG10" t="n">
         <v>143</v>
       </c>
@@ -1248,62 +1265,62 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="D11" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
-      <c r="I11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="6" t="n"/>
-      <c r="O11" s="6" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N11" s="5" t="n"/>
+      <c r="O11" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="3" t="n"/>
+      <c r="Q11" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="R11" s="3" t="n"/>
-      <c r="S11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U11" s="6" t="n"/>
-      <c r="V11" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="S11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V11" s="5" t="n"/>
       <c r="W11" s="3" t="n"/>
-      <c r="X11" s="3" t="n"/>
-      <c r="Y11" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="X11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="3" t="n"/>
       <c r="Z11" s="3" t="n"/>
-      <c r="AA11" s="3" t="n"/>
-      <c r="AB11" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" s="6" t="n"/>
-      <c r="AD11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="AA11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="5" t="n"/>
+      <c r="AC11" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="3" t="n"/>
       <c r="AG11" t="n">
         <v>143</v>
       </c>
@@ -1315,60 +1332,60 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="n"/>
+      <c r="B12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
       <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
+      <c r="J12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L12" s="3" t="n"/>
-      <c r="M12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N12" s="6" t="n"/>
-      <c r="O12" s="6" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="R12" s="3" t="n"/>
-      <c r="S12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U12" s="6" t="n"/>
-      <c r="V12" s="6" t="n"/>
-      <c r="W12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X12" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="5" t="n"/>
+      <c r="O12" s="5" t="n"/>
+      <c r="P12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="5" t="n"/>
+      <c r="V12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
       <c r="Y12" s="3" t="n"/>
-      <c r="Z12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" s="3" t="n"/>
-      <c r="AB12" s="6" t="n"/>
-      <c r="AC12" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="Z12" s="3" t="n"/>
+      <c r="AA12" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="5" t="n"/>
       <c r="AD12" s="3" t="n"/>
-      <c r="AE12" s="7" t="n">
+      <c r="AE12" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AF12" s="3" t="n"/>
@@ -1383,63 +1400,63 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="n">
+      <c r="B13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="n"/>
-      <c r="H13" s="6" t="n"/>
-      <c r="I13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="L13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="M13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N13" s="6" t="n"/>
-      <c r="O13" s="6" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="5" t="n"/>
+      <c r="O13" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="4" t="n">
         <v>11</v>
       </c>
       <c r="R13" s="3" t="n"/>
-      <c r="S13" s="3" t="n"/>
+      <c r="S13" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="T13" s="3" t="n"/>
-      <c r="U13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V13" s="6" t="n"/>
+      <c r="U13" s="5" t="n"/>
+      <c r="V13" s="5" t="n"/>
       <c r="W13" s="3" t="n"/>
-      <c r="X13" s="3" t="n"/>
-      <c r="Y13" s="3" t="n"/>
+      <c r="X13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="Z13" s="3" t="n"/>
       <c r="AA13" s="3" t="n"/>
-      <c r="AB13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="AB13" s="5" t="n"/>
+      <c r="AC13" s="5" t="n"/>
+      <c r="AD13" s="3" t="n"/>
       <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
+      <c r="AF13" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AG13" t="n">
         <v>143</v>
       </c>
@@ -1451,62 +1468,62 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="B14" s="3" t="n"/>
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
+      <c r="F14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5" t="n"/>
       <c r="I14" s="7" t="n">
         <v>11</v>
       </c>
       <c r="J14" s="3" t="n"/>
-      <c r="K14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" s="6" t="n"/>
-      <c r="P14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="3" t="n"/>
-      <c r="R14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S14" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5" t="n"/>
+      <c r="O14" s="5" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="n"/>
       <c r="T14" s="3" t="n"/>
-      <c r="U14" s="6" t="n"/>
-      <c r="V14" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="W14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X14" s="3" t="n"/>
-      <c r="Y14" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="U14" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="3" t="n"/>
       <c r="Z14" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AA14" s="3" t="n"/>
-      <c r="AB14" s="6" t="n"/>
-      <c r="AC14" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" s="3" t="n"/>
+      <c r="AB14" s="5" t="n"/>
+      <c r="AC14" s="5" t="n"/>
+      <c r="AD14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AF14" s="3" t="n"/>
       <c r="AG14" t="n">
         <v>143</v>
@@ -1519,60 +1536,60 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
+      <c r="B15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="J15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="6" t="n"/>
-      <c r="O15" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P15" s="7" t="n">
+      <c r="M15" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" s="5" t="n"/>
+      <c r="O15" s="5" t="n"/>
+      <c r="P15" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="S15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="6" t="n"/>
-      <c r="V15" s="5" t="n">
-        <v>11</v>
-      </c>
+      <c r="R15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" s="5" t="n"/>
+      <c r="V15" s="5" t="n"/>
       <c r="W15" s="4" t="n">
         <v>11</v>
       </c>
       <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="3" t="n"/>
-      <c r="Z15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" s="6" t="n"/>
-      <c r="AC15" s="6" t="n"/>
-      <c r="AD15" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" s="4" t="n">
+      <c r="Y15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="3" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="5" t="n"/>
+      <c r="AC15" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="7" t="n">
         <v>11</v>
       </c>
       <c r="AF15" s="3" t="n"/>
@@ -1590,60 +1607,60 @@
       <c r="B16" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="E16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3" t="n"/>
       <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N16" s="6" t="n"/>
-      <c r="O16" s="8" t="n">
-        <v>11</v>
-      </c>
+      <c r="L16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="5" t="n"/>
+      <c r="O16" s="5" t="n"/>
       <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="R16" s="3" t="n"/>
       <c r="S16" s="7" t="n">
         <v>11</v>
       </c>
       <c r="T16" s="3" t="n"/>
-      <c r="U16" s="6" t="n"/>
-      <c r="V16" s="6" t="n"/>
+      <c r="U16" s="5" t="n"/>
+      <c r="V16" s="5" t="n"/>
       <c r="W16" s="3" t="n"/>
-      <c r="X16" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="3" t="n"/>
-      <c r="Z16" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB16" s="6" t="n"/>
-      <c r="AC16" s="6" t="n"/>
+      <c r="X16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="3" t="n"/>
+      <c r="AA16" s="3" t="n"/>
+      <c r="AB16" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" s="6" t="n">
+        <v>11</v>
+      </c>
       <c r="AD16" s="3" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
+      <c r="AE16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AG16" t="n">
         <v>143</v>
       </c>
@@ -1655,61 +1672,61 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
-      <c r="I17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="L17" s="4" t="n">
         <v>11</v>
       </c>
       <c r="M17" s="3" t="n"/>
-      <c r="N17" s="6" t="n"/>
-      <c r="O17" s="5" t="n">
+      <c r="N17" s="5" t="n"/>
+      <c r="O17" s="6" t="n">
         <v>11</v>
       </c>
       <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="Q17" s="3" t="n"/>
       <c r="R17" s="3" t="n"/>
       <c r="S17" s="3" t="n"/>
       <c r="T17" s="3" t="n"/>
-      <c r="U17" s="6" t="n"/>
-      <c r="V17" s="6" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="3" t="n"/>
-      <c r="AA17" s="3" t="n"/>
-      <c r="AB17" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" s="3" t="n"/>
+      <c r="U17" s="5" t="n"/>
+      <c r="V17" s="5" t="n"/>
+      <c r="W17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="3" t="n"/>
+      <c r="Z17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" s="5" t="n"/>
+      <c r="AC17" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="7" t="n">
+      <c r="AF17" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AG17" t="n">
@@ -1723,62 +1740,62 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" s="7" t="n">
+      <c r="B18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N18" s="6" t="n"/>
-      <c r="O18" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P18" s="3" t="n"/>
+      <c r="E18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="5" t="n"/>
+      <c r="O18" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="Q18" s="3" t="n"/>
       <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" s="6" t="n"/>
-      <c r="V18" s="6" t="n"/>
+      <c r="S18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" s="5" t="n"/>
       <c r="W18" s="3" t="n"/>
       <c r="X18" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Y18" s="3" t="n"/>
-      <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="3" t="n"/>
-      <c r="AB18" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC18" s="6" t="n"/>
-      <c r="AD18" s="3" t="n"/>
-      <c r="AE18" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="Z18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="5" t="n"/>
+      <c r="AC18" s="5" t="n"/>
+      <c r="AD18" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" s="3" t="n"/>
       <c r="AF18" s="3" t="n"/>
       <c r="AG18" t="n">
         <v>143</v>
@@ -1791,61 +1808,61 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="n">
+      <c r="B19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="4" t="n">
-        <v>11</v>
-      </c>
+      <c r="E19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="n"/>
       <c r="K19" s="3" t="n"/>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N19" s="6" t="n"/>
-      <c r="O19" s="6" t="n"/>
+      <c r="L19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="n"/>
+      <c r="N19" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="P19" s="3" t="n"/>
       <c r="Q19" s="3" t="n"/>
-      <c r="R19" s="3" t="n"/>
-      <c r="S19" s="3" t="n"/>
-      <c r="T19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U19" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="V19" s="6" t="n"/>
-      <c r="W19" s="3" t="n"/>
+      <c r="R19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="5" t="n"/>
+      <c r="V19" s="5" t="n"/>
+      <c r="W19" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="X19" s="3" t="n"/>
-      <c r="Y19" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="Y19" s="3" t="n"/>
       <c r="Z19" s="3" t="n"/>
       <c r="AA19" s="3" t="n"/>
-      <c r="AB19" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="6" t="n"/>
-      <c r="AD19" s="3" t="n"/>
-      <c r="AE19" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF19" s="7" t="n">
+      <c r="AB19" s="5" t="n"/>
+      <c r="AC19" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" s="3" t="n"/>
+      <c r="AF19" s="4" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
@@ -1859,60 +1876,60 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>11</v>
-      </c>
+      <c r="B20" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="n"/>
-      <c r="H20" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-      <c r="L20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="N20" s="6" t="n"/>
-      <c r="O20" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="n">
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" s="5" t="n"/>
+      <c r="P20" s="4" t="n">
         <v>11</v>
       </c>
       <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="3" t="n"/>
+      <c r="R20" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="S20" s="3" t="n"/>
-      <c r="T20" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="U20" s="6" t="n"/>
-      <c r="V20" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="W20" s="3" t="n"/>
-      <c r="X20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="5" t="n"/>
+      <c r="V20" s="5" t="n"/>
+      <c r="W20" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X20" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="Y20" s="3" t="n"/>
       <c r="Z20" s="3" t="n"/>
-      <c r="AA20" s="3" t="n"/>
-      <c r="AB20" s="6" t="n"/>
-      <c r="AC20" s="6" t="n"/>
+      <c r="AA20" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="5" t="n"/>
       <c r="AD20" s="3" t="n"/>
-      <c r="AE20" s="3" t="n"/>
+      <c r="AE20" s="4" t="n">
+        <v>11</v>
+      </c>
       <c r="AF20" s="4" t="n">
         <v>11</v>
       </c>
@@ -1933,16 +1950,16 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>7</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>5</v>
@@ -1951,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" s="3" t="n">
         <v>7</v>
@@ -1960,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22" s="3" t="n">
         <v>7</v>
@@ -1972,31 +1989,31 @@
         <v>5</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R22" s="3" t="n">
         <v>7</v>
       </c>
       <c r="S22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="T22" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="U22" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V22" s="3" t="n">
         <v>5</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X22" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y22" s="3" t="n">
         <v>7</v>
@@ -2008,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="AB22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3" t="n">
         <v>6</v>
-      </c>
-      <c r="AC22" s="3" t="n">
-        <v>5</v>
       </c>
       <c r="AD22" s="3" t="n">
         <v>7</v>
@@ -2145,5 +2162,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>